--- a/biology/Zoologie/Eozapus_setchuanus/Eozapus_setchuanus.xlsx
+++ b/biology/Zoologie/Eozapus_setchuanus/Eozapus_setchuanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eozapus setchuanus est une espèce de mammifères rongeurs de la famille des Dipodidae. Il s'agit de la seule espèce actuelle du genre Eozapus. On la rencontre en Chine. Considérée comme vulnérable par l'UICN en 1996, l'espèce semble hors de danger d'après les estimations de 2008.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste d'espèces du genre Eozapus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (20 sept. 2012)[1], Catalogue of Life                                   (20 sept. 2012)[2], ITIS      (20 sept. 2012)[3], NCBI  (20 sept. 2012)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (20 sept. 2012), Catalogue of Life                                   (20 sept. 2012), ITIS      (20 sept. 2012), NCBI  (20 sept. 2012) :
 Eozapus setchuanus (Pousargues, 1896)
-Selon Paleobiology Database                   (20 sept. 2012)[5] :
+Selon Paleobiology Database                   (20 sept. 2012) :
 Eozapus setchuanus
 Eozapus similis
 Protozapus intermedius</t>
